--- a/results/excel/0804-n15.xlsx
+++ b/results/excel/0804-n15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0190\Dropbox\USC\publication\gcn\smuggler_networks\results\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E31572-12C5-4BDE-A2EA-E9D3C23CACE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896DFAF-FA03-43B3-B105-826B0153BCB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15307,7 +15307,7 @@
   <dimension ref="A1:BE576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15502,203 +15502,203 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="H2:Q4" si="0">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G2)</f>
         <v>1.3819851604718973</v>
       </c>
       <c r="I2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.3761800009106802</v>
       </c>
       <c r="J2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.240877818872054</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.97662281156295583</v>
       </c>
       <c r="L2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.82072274286950242</v>
       </c>
       <c r="M2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.71346443534370252</v>
       </c>
       <c r="N2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.64023019246875124</v>
       </c>
       <c r="O2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.5452058807843243</v>
       </c>
       <c r="P2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.4718725425028602</v>
       </c>
       <c r="Q2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.43375254814764286</v>
       </c>
       <c r="R2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="R2:AA4" si="1">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G2)</f>
         <v>0.42887960155568394</v>
       </c>
       <c r="S2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.40432049469460524</v>
       </c>
       <c r="T2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.39129859823142205</v>
       </c>
       <c r="U2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.37996564201774058</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.37886980234512224</v>
       </c>
       <c r="W2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.37942981824337918</v>
       </c>
       <c r="X2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.3779354624361505</v>
       </c>
       <c r="Y2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.3783735593455646</v>
       </c>
       <c r="Z2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.37740070306001156</v>
       </c>
       <c r="AA2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.37686142957517987</v>
       </c>
       <c r="AB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AB2:AK4" si="2">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AL2:AU4" si="3">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AV2:BE4" si="4">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15722,203 +15722,203 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3833709809515191</v>
       </c>
       <c r="I3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3530725267198311</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.0656439893775489</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.87426598568757086</v>
       </c>
       <c r="L3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.71004359092977165</v>
       </c>
       <c r="M3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.63742086655563712</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.52958446178171237</v>
       </c>
       <c r="O3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.44268909361627234</v>
       </c>
       <c r="P3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.38949871758619914</v>
       </c>
       <c r="Q3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.35527966966231628</v>
       </c>
       <c r="R3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.34991289244757712</v>
       </c>
       <c r="S3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.32931183262003744</v>
       </c>
       <c r="T3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.3142242934968732</v>
       </c>
       <c r="U3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31364002144998948</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31384847743643629</v>
       </c>
       <c r="W3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31254178136587096</v>
       </c>
       <c r="X3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.3117792717284622</v>
       </c>
       <c r="Y3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31245702554782195</v>
       </c>
       <c r="Z3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31124165836307705</v>
       </c>
       <c r="AA3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.31065360241466061</v>
       </c>
       <c r="AB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15942,203 +15942,203 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.401701036426753</v>
       </c>
       <c r="I4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.371376653512316</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.087845050295192</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.89507875856425734</v>
       </c>
       <c r="L4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.73848765078517942</v>
       </c>
       <c r="M4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.67252172728379289</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.57287809964683112</v>
       </c>
       <c r="O4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.50078741336862054</v>
       </c>
       <c r="P4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.44784599641958839</v>
       </c>
       <c r="Q4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.42228496265080168</v>
       </c>
       <c r="R4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.42060604881909108</v>
       </c>
       <c r="S4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.40167908155255794</v>
       </c>
       <c r="T4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.38161286281214768</v>
       </c>
       <c r="U4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.38146900302833919</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.38136741444468453</v>
       </c>
       <c r="W4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.38117643056644296</v>
       </c>
       <c r="X4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.37947835731837437</v>
       </c>
       <c r="Y4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.38072922494676342</v>
       </c>
       <c r="Z4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.37940379480520836</v>
       </c>
       <c r="AA4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.37875399572981711</v>
       </c>
       <c r="AB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16369,203 +16369,203 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="H8:Q10" si="5">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G8)</f>
         <v>-3.5627556505657338</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.5699222769055998</v>
       </c>
       <c r="J8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.4425583828063209</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.1935360821466556</v>
       </c>
       <c r="L8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.0476825044268612</v>
       </c>
       <c r="M8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.9837572797896326</v>
       </c>
       <c r="N8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.983534864773822</v>
       </c>
       <c r="O8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.9151524579714154</v>
       </c>
       <c r="P8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8416623051204342</v>
       </c>
       <c r="Q8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8097524162322718</v>
       </c>
       <c r="R8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="R8:AA10" si="6">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G8)</f>
         <v>-2.8060152143712962</v>
       </c>
       <c r="S8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7826943859221389</v>
       </c>
       <c r="T8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7572531888409229</v>
       </c>
       <c r="U8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7534646469449187</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7587244163429898</v>
       </c>
       <c r="W8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.748770532721561</v>
       </c>
       <c r="X8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7473119211575288</v>
       </c>
       <c r="Y8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7411137656559972</v>
       </c>
       <c r="Z8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7403825228176366</v>
       </c>
       <c r="AA8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7291825471416322</v>
       </c>
       <c r="AB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AB8:AK10" si="7">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AL8:AU10" si="8">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AV8:BE10" si="9">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16589,203 +16589,203 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5334928565555086</v>
       </c>
       <c r="I9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5129299746619269</v>
       </c>
       <c r="J9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.2488871124055616</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.9139721784326711</v>
       </c>
       <c r="L9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8283805820676968</v>
       </c>
       <c r="M9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8265465385383988</v>
       </c>
       <c r="N9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8151004658804961</v>
       </c>
       <c r="O9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7389369524187464</v>
       </c>
       <c r="P9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7102540526125121</v>
       </c>
       <c r="Q9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6486276692814252</v>
       </c>
       <c r="R9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6469548145929913</v>
       </c>
       <c r="S9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6470058020618179</v>
       </c>
       <c r="T9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.602915733390379</v>
       </c>
       <c r="U9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5848374661472056</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5983589414093178</v>
       </c>
       <c r="W9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.616701551940702</v>
       </c>
       <c r="X9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5949481874704321</v>
       </c>
       <c r="Y9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6186777323484365</v>
       </c>
       <c r="Z9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5832734402683002</v>
       </c>
       <c r="AA9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5764571021000489</v>
       </c>
       <c r="AB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16809,203 +16809,203 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.5769443353017132</v>
       </c>
       <c r="I10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.5576870679855284</v>
       </c>
       <c r="J10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.2262603534592476</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.9135927283101566</v>
       </c>
       <c r="L10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.8064062737756257</v>
       </c>
       <c r="M10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.8168224056561755</v>
       </c>
       <c r="N10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7595168544186439</v>
       </c>
       <c r="O10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7333712408939945</v>
       </c>
       <c r="P10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.657020723488591</v>
       </c>
       <c r="Q10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6577427479955844</v>
       </c>
       <c r="R10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6667785621351623</v>
       </c>
       <c r="S10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6812487860520635</v>
       </c>
       <c r="T10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6744583467642413</v>
       </c>
       <c r="U10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6796228994925757</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6813565863503301</v>
       </c>
       <c r="W10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6761737565199493</v>
       </c>
       <c r="X10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6790523072083747</v>
       </c>
       <c r="Y10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6820916159285391</v>
       </c>
       <c r="Z10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.684029573864402</v>
       </c>
       <c r="AA10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6869024925761722</v>
       </c>
       <c r="AB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17240,199 +17240,199 @@
         <v>-3.7567146486706142</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:X16" si="0">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="I14:X16" si="10">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
         <v>-3.7688075833850387</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.738880554834997</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.5485028425852407</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.3651033904817331</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.2712616258197311</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1931697130203203</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1092429293526496</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9978923665152597</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9461285538143525</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9240142107009839</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.946683724721268</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9149759478039154</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9104003111521357</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8959389792548231</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8784414927164668</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9104741679297494</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="L14:BE16" si="1">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="L14:BE16" si="11">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
         <v>-2.8882393307155994</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8773706356684334</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8700155152214841</v>
       </c>
       <c r="AB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17460,199 +17460,199 @@
         <v>-3.7787796258926343</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.7410394615597147</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.6181847519344705</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.392015642589989</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-3.2204261753294148</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-3.1440264516406558</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0694066021177457</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8801365693410204</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8208790090348943</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8718883328967579</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8523676527870965</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8152239587571839</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7487121952904543</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8254811498853831</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8160958422554812</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8252310355504298</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8589667081832832</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7503284878200898</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.792331033282804</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7786697944005292</v>
       </c>
       <c r="AB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17680,199 +17680,199 @@
         <v>-3.7587865193684866</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.7593948046366332</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.6027404069900464</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.4078058666653051</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-3.1988887124591354</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-3.2310977114571404</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0634455813301904</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.99131263626946</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.9087021350860569</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8658479319678367</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8556388484107074</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8594470553927889</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8680574761496609</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8917577928966889</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8622457716200036</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8613622321022834</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8969608942667602</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8634211089875925</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8467659287982454</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8339528110292167</v>
       </c>
       <c r="AB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27580,203 +27580,203 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" ref="H2:Q4" si="0">AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G2)</f>
         <v>1.381985160462964</v>
       </c>
       <c r="I2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.3663577629296015</v>
       </c>
       <c r="J2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.0691992425579171</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.60360625722804595</v>
       </c>
       <c r="L2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.42919994064346106</v>
       </c>
       <c r="M2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.37116166821233532</v>
       </c>
       <c r="N2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.34390769185703279</v>
       </c>
       <c r="O2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.32409942804146452</v>
       </c>
       <c r="P2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.30695383742659027</v>
       </c>
       <c r="Q2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.29180846914404313</v>
       </c>
       <c r="R2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" ref="R2:AA4" si="1">AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G2)</f>
         <v>0.27587690912943208</v>
       </c>
       <c r="S2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.26114310424053411</v>
       </c>
       <c r="T2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.24917952538495111</v>
       </c>
       <c r="U2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.24122254982840408</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.23668132206021258</v>
       </c>
       <c r="W2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.2327291290187222</v>
       </c>
       <c r="X2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.2305784200677311</v>
       </c>
       <c r="Y2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.22827532870136594</v>
       </c>
       <c r="Z2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.22624629367409227</v>
       </c>
       <c r="AA2">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.22382082944321702</v>
       </c>
       <c r="AB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" ref="AB2:AK4" si="2">AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" ref="AL2:AU4" si="3">AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" ref="AV2:BE4" si="4">AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27800,203 +27800,203 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3833709810081067</v>
       </c>
       <c r="I3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3093107568115356</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.74070318397755242</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.43076630584514997</v>
       </c>
       <c r="L3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.34274707448133501</v>
       </c>
       <c r="M3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.31066662477279361</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.29199547911033397</v>
       </c>
       <c r="O3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.27803034105991226</v>
       </c>
       <c r="P3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.26561267297519409</v>
       </c>
       <c r="Q3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.25146948543210618</v>
       </c>
       <c r="R3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.23807532662286451</v>
       </c>
       <c r="S3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.22475203576073444</v>
       </c>
       <c r="T3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.21705611043000439</v>
       </c>
       <c r="U3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.2129428656637618</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20945650242236916</v>
       </c>
       <c r="W3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20700149056333617</v>
       </c>
       <c r="X3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20644150596721594</v>
       </c>
       <c r="Y3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20317367893294044</v>
       </c>
       <c r="Z3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20311226816434969</v>
       </c>
       <c r="AA3">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20170745467551018</v>
       </c>
       <c r="AB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -28020,203 +28020,203 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.4017010363445319</v>
       </c>
       <c r="I4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.3283576878245125</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.77572008977513318</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.47649000863507118</v>
       </c>
       <c r="L4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.36965249453059379</v>
       </c>
       <c r="M4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.32905220955500025</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.30770706842066498</v>
       </c>
       <c r="O4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.29092896321134937</v>
       </c>
       <c r="P4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.27708436335784303</v>
       </c>
       <c r="Q4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.26307951844650057</v>
       </c>
       <c r="R4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.24823558365052356</v>
       </c>
       <c r="S4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.23855096442831114</v>
       </c>
       <c r="T4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22923773297772032</v>
       </c>
       <c r="U4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22474551317201266</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22436946647744341</v>
       </c>
       <c r="W4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22206465149956386</v>
       </c>
       <c r="X4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22178749943350332</v>
       </c>
       <c r="Y4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22077260187576175</v>
       </c>
       <c r="Z4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.21970481512281498</v>
       </c>
       <c r="AA4">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.21751079145726987</v>
       </c>
       <c r="AB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -28447,203 +28447,203 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" ref="H8:Q10" si="5">AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G8)</f>
         <v>-3.5627556505596973</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.5654859966368866</v>
       </c>
       <c r="J8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.4647611983874764</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.1380390380792766</v>
       </c>
       <c r="L8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.9488166310382913</v>
       </c>
       <c r="M8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.869695738740063</v>
       </c>
       <c r="N8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8348231741251806</v>
       </c>
       <c r="O8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8259076889670034</v>
       </c>
       <c r="P8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8245130124285076</v>
       </c>
       <c r="Q8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8029981433894222</v>
       </c>
       <c r="R8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" ref="R8:AA10" si="6">AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G8)</f>
         <v>-2.7581929359324087</v>
       </c>
       <c r="S8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7608133406684114</v>
       </c>
       <c r="T8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7450078384478727</v>
       </c>
       <c r="U8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7344516596572905</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7577282623175488</v>
       </c>
       <c r="W8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7320910154981046</v>
       </c>
       <c r="X8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7317311119012753</v>
       </c>
       <c r="Y8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7356920256042554</v>
       </c>
       <c r="Z8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7193608796248046</v>
       </c>
       <c r="AA8">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7220872128009241</v>
       </c>
       <c r="AB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" ref="AB8:AK10" si="7">AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" ref="AL8:AU10" si="8">AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" ref="AV8:BE10" si="9">AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -28667,203 +28667,203 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5334928565294565</v>
       </c>
       <c r="I9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5323660585195689</v>
       </c>
       <c r="J9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.1831859442233226</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8910470861126094</v>
       </c>
       <c r="L9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8375479724078962</v>
       </c>
       <c r="M9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.8146711014910002</v>
       </c>
       <c r="N9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7920902080793719</v>
       </c>
       <c r="O9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7792468840213362</v>
       </c>
       <c r="P9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.703037904424185</v>
       </c>
       <c r="Q9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7179834891748715</v>
       </c>
       <c r="R9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6987161831732345</v>
       </c>
       <c r="S9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6739917523081993</v>
       </c>
       <c r="T9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6699587907470144</v>
       </c>
       <c r="U9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6650438000392302</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6508464023239933</v>
       </c>
       <c r="W9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.701501194290131</v>
       </c>
       <c r="X9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6553528855714168</v>
       </c>
       <c r="Y9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6610015138691683</v>
       </c>
       <c r="Z9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6116709520946833</v>
       </c>
       <c r="AA9">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.643331108542911</v>
       </c>
       <c r="AB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -28887,203 +28887,203 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, H$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.5769443352883008</v>
       </c>
       <c r="I10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, I$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.6533826641681424</v>
       </c>
       <c r="J10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, J$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.1689518450655156</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, K$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.8806602176284253</v>
       </c>
       <c r="L10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, L$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.771990128077765</v>
       </c>
       <c r="M10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, M$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7350946111510765</v>
       </c>
       <c r="N10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, N$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7240316721178033</v>
       </c>
       <c r="O10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, O$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7446885514060013</v>
       </c>
       <c r="P10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, P$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7373352726907925</v>
       </c>
       <c r="Q10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Q$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6392042944798297</v>
       </c>
       <c r="R10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, R$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6295259959638586</v>
       </c>
       <c r="S10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, S$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6290293383392851</v>
       </c>
       <c r="T10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, T$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6142126236643333</v>
       </c>
       <c r="U10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, U$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.623786270956467</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, V$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.641337968446928</v>
       </c>
       <c r="W10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, W$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5701654814603021</v>
       </c>
       <c r="X10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, X$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6091719905332935</v>
       </c>
       <c r="Y10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Y$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6146339493199111</v>
       </c>
       <c r="Z10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, Z$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5699291785345899</v>
       </c>
       <c r="AA10">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AA$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6169074962771011</v>
       </c>
       <c r="AB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AB$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AC$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AD$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AE$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AF$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AG$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AH$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AI$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AJ$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AK$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AL$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AM$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AN$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AO$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AP$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AQ$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AR$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AS$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AT$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AU$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AV$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AW$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AX$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AY$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, AZ$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BA$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BB$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BC$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BD$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2143, $B$2:$B$2143, BE$1,$A$2:$A$2143, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29318,199 +29318,199 @@
         <v>-3.7567146485510685</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:X16" si="0">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="I14:X16" si="10">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
         <v>-3.7515410317653095</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.5398537715442879</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1231850386711879</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9448496898336356</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8586051993507868</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8454868264915492</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8358184231523014</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8177343872282634</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.792528483660079</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7717537879313401</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7660175031562679</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.740291900181794</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7390182547537263</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7492526903161854</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7211292585960947</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7407377825327801</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="N14:BE16" si="1">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="N14:BE16" si="11">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
         <v>-2.7152813672553342</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6974843739819652</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7179218530360552</v>
       </c>
       <c r="AB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29538,199 +29538,199 @@
         <v>-3.7787796260047921</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.6846976942276393</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1545411613324417</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8589123486826744</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.867545472291678</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8350906636994071</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7858841417996389</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7545379002659889</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6916354364860871</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6839223438501767</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7198858923769169</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6547735266530585</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7262528076117123</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7286856438261422</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6817983389556255</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6580914127912028</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7158574793926031</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6375765270117975</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.5910318560850873</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.5847386652051765</v>
       </c>
       <c r="AB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29758,199 +29758,199 @@
         <v>-3.7587865194158514</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.6966552468793501</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.2412483956410552</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9390833376712622</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8474472762114575</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.780299584044851</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7671751842578298</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8055746289995764</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8232341475243112</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7236298851408733</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.681847439829371</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7192539108571196</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6984585523977502</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7016706334415455</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.637256463241167</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6810476515253754</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6553457048541915</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6693709294266252</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6978274450914834</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7391402456125586</v>
       </c>
       <c r="AB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -39657,203 +39657,203 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" ref="H2:Q4" si="0">AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G2)</f>
         <v>1.3819851604533777</v>
       </c>
       <c r="I2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.3747922533112633</v>
       </c>
       <c r="J2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.2383145814728465</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.0063762186373724</v>
       </c>
       <c r="L2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.89839229010790511</v>
       </c>
       <c r="M2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.84431743285469552</v>
       </c>
       <c r="N2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.80229668097329254</v>
       </c>
       <c r="O2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.75792820151225315</v>
       </c>
       <c r="P2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.75031297467430436</v>
       </c>
       <c r="Q2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.72631063518426231</v>
       </c>
       <c r="R2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" ref="R2:AA4" si="1">AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G2)</f>
         <v>0.69794755511102202</v>
       </c>
       <c r="S2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.69953616969724131</v>
       </c>
       <c r="T2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67208141544010258</v>
       </c>
       <c r="U2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67927534442459858</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67865372815896918</v>
       </c>
       <c r="W2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.6776097499041529</v>
       </c>
       <c r="X2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67682047520845745</v>
       </c>
       <c r="Y2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67624041467448925</v>
       </c>
       <c r="Z2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67584171952432992</v>
       </c>
       <c r="AA2">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.67438294579451208</v>
       </c>
       <c r="AB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" ref="AB2:AK4" si="2">AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" ref="AL2:AU4" si="3">AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" ref="AV2:BE4" si="4">AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -39877,203 +39877,203 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3833709808323011</v>
       </c>
       <c r="I3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3510886933767745</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.096005756287433</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.95433514107126349</v>
       </c>
       <c r="L3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.84139009432130984</v>
       </c>
       <c r="M3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.80015965833256919</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.7247363746072093</v>
       </c>
       <c r="O3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.69515676427306738</v>
       </c>
       <c r="P3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.68438973833020589</v>
       </c>
       <c r="Q3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.65736880371987627</v>
       </c>
       <c r="R3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.6384702970424857</v>
       </c>
       <c r="S3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.62749868274758414</v>
       </c>
       <c r="T3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.62114862107495428</v>
       </c>
       <c r="U3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61998544734775685</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.62041429022976891</v>
       </c>
       <c r="W3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61798404026806741</v>
       </c>
       <c r="X3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61684850489019816</v>
       </c>
       <c r="Y3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61610458961114767</v>
       </c>
       <c r="Z3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61492059896143969</v>
       </c>
       <c r="AA3">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.61391404231781188</v>
       </c>
       <c r="AB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40097,203 +40097,203 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.4017010364155544</v>
       </c>
       <c r="I4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.3688070060259834</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.1056795488707063</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.96141201570212609</v>
       </c>
       <c r="L4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.86003926327056668</v>
       </c>
       <c r="M4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.82508531647207184</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.75989329524004612</v>
       </c>
       <c r="O4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.73676092638106683</v>
       </c>
       <c r="P4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.72937402858812228</v>
       </c>
       <c r="Q4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.70266327462419198</v>
       </c>
       <c r="R4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.68530556098719952</v>
       </c>
       <c r="S4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.67701991202351119</v>
       </c>
       <c r="T4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66824838659699726</v>
       </c>
       <c r="U4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66780469828156974</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66902780534583206</v>
       </c>
       <c r="W4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66678704747653428</v>
       </c>
       <c r="X4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66615434674625695</v>
       </c>
       <c r="Y4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66570632956056319</v>
       </c>
       <c r="Z4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66495144005534224</v>
       </c>
       <c r="AA4">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.66407430564874625</v>
       </c>
       <c r="AB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40524,203 +40524,203 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" ref="H8:Q10" si="5">AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G8)</f>
         <v>-3.6174220827130359</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.6098008003972848</v>
       </c>
       <c r="J8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.4239713824937357</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.9975039203684952</v>
       </c>
       <c r="L8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8842585708707911</v>
       </c>
       <c r="M8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8548425458347766</v>
       </c>
       <c r="N8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8437362844126777</v>
       </c>
       <c r="O8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8165270362899513</v>
       </c>
       <c r="P8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8096414410573711</v>
       </c>
       <c r="Q8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8088660257708158</v>
       </c>
       <c r="R8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" ref="R8:AA10" si="6">AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G8)</f>
         <v>-2.79057906946684</v>
       </c>
       <c r="S8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7797682982775567</v>
       </c>
       <c r="T8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7806744021129264</v>
       </c>
       <c r="U8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7756025321195321</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7748589544019646</v>
       </c>
       <c r="W8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7734156466190458</v>
       </c>
       <c r="X8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7713503936355912</v>
       </c>
       <c r="Y8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7709177760999144</v>
       </c>
       <c r="Z8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7692097428521998</v>
       </c>
       <c r="AA8">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7706272003428185</v>
       </c>
       <c r="AB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" ref="AB8:AK10" si="7">AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" ref="AL8:AU10" si="8">AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" ref="AV8:BE10" si="9">AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40744,203 +40744,203 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.6059780810597442</v>
       </c>
       <c r="I9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5601411341484481</v>
       </c>
       <c r="J9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.1845336464136875</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.759361205630968</v>
       </c>
       <c r="L9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7067257477100659</v>
       </c>
       <c r="M9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6971617593268249</v>
       </c>
       <c r="N9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7088952455020441</v>
       </c>
       <c r="O9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.676769423505319</v>
       </c>
       <c r="P9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6740820756150878</v>
       </c>
       <c r="Q9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6425860025555368</v>
       </c>
       <c r="R9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6224589387573078</v>
       </c>
       <c r="S9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6093869432017356</v>
       </c>
       <c r="T9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.607726282912362</v>
       </c>
       <c r="U9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6067494794349444</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6073391251406903</v>
       </c>
       <c r="W9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6098205367332588</v>
       </c>
       <c r="X9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6100341624123415</v>
       </c>
       <c r="Y9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6077979566179379</v>
       </c>
       <c r="Z9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6053163965814723</v>
       </c>
       <c r="AA9">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6057004636004266</v>
       </c>
       <c r="AB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -40964,203 +40964,203 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, H$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.6064942228196935</v>
       </c>
       <c r="I10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, I$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.5607655339351783</v>
       </c>
       <c r="J10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, J$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.1377322607385767</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, K$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7441757688926547</v>
       </c>
       <c r="L10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, L$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7002149419691381</v>
       </c>
       <c r="M10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, M$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.683287445963471</v>
       </c>
       <c r="N10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, N$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6788581897963493</v>
       </c>
       <c r="O10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, O$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6557961488260933</v>
       </c>
       <c r="P10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, P$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6617177860439458</v>
       </c>
       <c r="Q10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Q$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6443035400228436</v>
       </c>
       <c r="R10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, R$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6344130720956844</v>
       </c>
       <c r="S10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, S$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6386769447697258</v>
       </c>
       <c r="T10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, T$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6554710887786643</v>
       </c>
       <c r="U10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, U$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6565011865583368</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, V$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6555756780640674</v>
       </c>
       <c r="W10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, W$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6545600288451592</v>
       </c>
       <c r="X10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, X$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6535226173223809</v>
       </c>
       <c r="Y10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Y$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6562027453839407</v>
       </c>
       <c r="Z10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, Z$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6550681561855733</v>
       </c>
       <c r="AA10">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AA$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.6544710884881142</v>
       </c>
       <c r="AB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AB$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AC$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AD$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AE$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AF$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AG$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AH$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AI$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AJ$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AK$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AL$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AM$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AN$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AO$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AP$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AQ$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AR$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AS$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AT$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AU$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AV$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AW$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AX$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AY$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, AZ$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BA$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BB$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BC$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BD$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2131, $B$2:$B$2131, BE$1,$A$2:$A$2131, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -41395,199 +41395,199 @@
         <v>-3.5110131767551516</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:X16" si="0">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="I14:X16" si="10">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
         <v>-3.5088941389243691</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.4437202346985121</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1681658692716859</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0566160547222214</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0433132250734567</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0273161066189074</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0108707879664425</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9874824816143248</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9828639032416966</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9934204153346204</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9724750253424737</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9422866105627419</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9483770396155298</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9411476717112892</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9371089405460178</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9336892896711535</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:BE16" si="1">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="Y14:BE16" si="11">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
         <v>-2.9559809233395296</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.9588248067945666</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.9507317807957745</v>
       </c>
       <c r="AB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -41615,199 +41615,199 @@
         <v>-3.5556977191443671</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.4363887707720111</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.2874823675306772</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9877811272477866</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0857611496936688</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9751733410429533</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.91918138670056</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.953413393851533</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9194008772995992</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9526296589804</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9008656609420291</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8857250743957499</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9119481113474648</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8704361518731258</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8548625972079784</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7971227433788779</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8171207905848643</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8635241322391067</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8108365801209425</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8707008230412301</v>
       </c>
       <c r="AB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -41835,199 +41835,199 @@
         <v>-3.5286418199406313</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.5076862573230354</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.3052719036939546</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9864865409219679</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9700243207821568</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.903624349143934</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8944791290519039</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9208615622076115</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8896444372667887</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8713232544293739</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8890707493517365</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9163367218968497</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8799026145914293</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8658154275582373</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8577751320098446</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8127605783049847</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8796530829481046</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8747313286835245</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8466689984756233</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.8606726062765282</v>
       </c>
       <c r="AB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -51733,203 +51733,203 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="H2:Q4" si="0">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G2)</f>
         <v>1.3819851604444446</v>
       </c>
       <c r="I2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.3659950222222221</v>
       </c>
       <c r="J2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>1.0708649834444446</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.59675438744444442</v>
       </c>
       <c r="L2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.42942893488888889</v>
       </c>
       <c r="M2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.37029719322222227</v>
       </c>
       <c r="N2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.34206984066666668</v>
       </c>
       <c r="O2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.32375526955555561</v>
       </c>
       <c r="P2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.30881164044444448</v>
       </c>
       <c r="Q2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="0"/>
         <v>0.29436811966666671</v>
       </c>
       <c r="R2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="R2:AA4" si="1">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G2)</f>
         <v>0.28003240388888889</v>
       </c>
       <c r="S2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.26612616333333339</v>
       </c>
       <c r="T2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.25287689544444442</v>
       </c>
       <c r="U2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.24347678288888888</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.2373999896666667</v>
       </c>
       <c r="W2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.23352458155555558</v>
       </c>
       <c r="X2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.23080105677777782</v>
       </c>
       <c r="Y2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.2283732182222222</v>
       </c>
       <c r="Z2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.22611313833333335</v>
       </c>
       <c r="AA2">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="1"/>
         <v>0.22389160788888893</v>
       </c>
       <c r="AB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AB2:AK4" si="2">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AL2:AU4" si="3">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" ref="AV2:BE4" si="4">AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE2" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G2)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -51953,203 +51953,203 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3833709808888888</v>
       </c>
       <c r="I3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>1.3096993857777777</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.74120608988888892</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.43053455844444444</v>
       </c>
       <c r="L3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.34310989133333336</v>
       </c>
       <c r="M3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.31092083411111116</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.29405623011111115</v>
       </c>
       <c r="O3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.2795455016666667</v>
       </c>
       <c r="P3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.26647301033333337</v>
       </c>
       <c r="Q3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="0"/>
         <v>0.25292903477777778</v>
       </c>
       <c r="R3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.24271690900000001</v>
       </c>
       <c r="S3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.22917991388888892</v>
       </c>
       <c r="T3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.22111689966666664</v>
       </c>
       <c r="U3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.21385654155555553</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20979226333333334</v>
       </c>
       <c r="W3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20648091500000001</v>
       </c>
       <c r="X3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20545293388888888</v>
       </c>
       <c r="Y3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20526362022222225</v>
       </c>
       <c r="Z3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.20350293900000002</v>
       </c>
       <c r="AA3">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="1"/>
         <v>0.2020841557777778</v>
       </c>
       <c r="AB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE3" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G3)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -52173,203 +52173,203 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.4017010363333333</v>
       </c>
       <c r="I4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>1.3287924746666666</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.77594463633333322</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.47444491699999997</v>
       </c>
       <c r="L4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.37180211033333332</v>
       </c>
       <c r="M4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.32956441300000006</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.30528097155555556</v>
       </c>
       <c r="O4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.29043722744444445</v>
       </c>
       <c r="P4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.2773413617777778</v>
       </c>
       <c r="Q4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="0"/>
         <v>0.26721250800000007</v>
       </c>
       <c r="R4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.25422148122222221</v>
       </c>
       <c r="S4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.24206877466666665</v>
       </c>
       <c r="T4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.23265099111111109</v>
       </c>
       <c r="U4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22726587088888892</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22505795688888894</v>
       </c>
       <c r="W4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22488194788888891</v>
       </c>
       <c r="X4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22199432744444447</v>
       </c>
       <c r="Y4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.21969192755555556</v>
       </c>
       <c r="Z4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.22018145944444442</v>
       </c>
       <c r="AA4">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="1"/>
         <v>0.21887833466666667</v>
       </c>
       <c r="AB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE4" t="e">
-        <f>AVERAGEIFS($C$2:$C$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -52600,203 +52600,203 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="H8:Q10" si="5">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G8)</f>
         <v>-3.617422082777777</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.6075622156666665</v>
       </c>
       <c r="J8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-3.3986235361111112</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.9979854450000003</v>
       </c>
       <c r="L8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8884983463333334</v>
       </c>
       <c r="M8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8654054317777775</v>
       </c>
       <c r="N8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8454308951111109</v>
       </c>
       <c r="O8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8196809661111111</v>
       </c>
       <c r="P8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.8010058517777776</v>
       </c>
       <c r="Q8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="5"/>
         <v>-2.7875713855555557</v>
       </c>
       <c r="R8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="R8:AA10" si="6">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G8)</f>
         <v>-2.7721226158888888</v>
       </c>
       <c r="S8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7672449983333332</v>
       </c>
       <c r="T8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.766067295888889</v>
       </c>
       <c r="U8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7493184868888889</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7382098650000004</v>
       </c>
       <c r="W8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7410945023333331</v>
       </c>
       <c r="X8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7463485528888887</v>
       </c>
       <c r="Y8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7434901887777778</v>
       </c>
       <c r="Z8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7253229344444443</v>
       </c>
       <c r="AA8">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="6"/>
         <v>-2.7335138258888887</v>
       </c>
       <c r="AB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AB8:AK10" si="7">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AL8:AU10" si="8">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" ref="AV8:BE10" si="9">AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE8" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G8)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -52820,203 +52820,203 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.6059780809999995</v>
       </c>
       <c r="I9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.5513580004444445</v>
       </c>
       <c r="J9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-3.0483501964444444</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.758044612555556</v>
       </c>
       <c r="L9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7354017752222224</v>
       </c>
       <c r="M9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.7326328950000001</v>
       </c>
       <c r="N9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6742774902222219</v>
       </c>
       <c r="O9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6572379655555554</v>
       </c>
       <c r="P9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6488899205555558</v>
       </c>
       <c r="Q9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="5"/>
         <v>-2.6359461837777776</v>
       </c>
       <c r="R9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.6242876100000001</v>
       </c>
       <c r="S9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5799594914444444</v>
       </c>
       <c r="T9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5747297327777776</v>
       </c>
       <c r="U9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5476795423333329</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5507318747777776</v>
       </c>
       <c r="W9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5398977464444448</v>
       </c>
       <c r="X9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5496922091111109</v>
       </c>
       <c r="Y9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5335923652222223</v>
       </c>
       <c r="Z9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5387995311111107</v>
       </c>
       <c r="AA9">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="6"/>
         <v>-2.5266855876666665</v>
       </c>
       <c r="AB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE9" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G9)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -53040,203 +53040,203 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, H$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.6064942228888888</v>
       </c>
       <c r="I10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.553754091333333</v>
       </c>
       <c r="J10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, J$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-3.0899166412222225</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, K$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.7559448911111111</v>
       </c>
       <c r="L10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, L$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.732468207777778</v>
       </c>
       <c r="M10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, M$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6882130191111111</v>
       </c>
       <c r="N10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, N$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6411305815555557</v>
       </c>
       <c r="O10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, O$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6375561412222219</v>
       </c>
       <c r="P10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, P$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6234651949999996</v>
       </c>
       <c r="Q10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Q$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="5"/>
         <v>-2.6192371676666664</v>
       </c>
       <c r="R10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, R$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5833885653333337</v>
       </c>
       <c r="S10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, S$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.580787215</v>
       </c>
       <c r="T10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, T$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5954812194444443</v>
       </c>
       <c r="U10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, U$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5809139722222221</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, V$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5914219153333335</v>
       </c>
       <c r="W10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, W$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5816491863333337</v>
       </c>
       <c r="X10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, X$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5987204747777772</v>
       </c>
       <c r="Y10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5681278964444441</v>
       </c>
       <c r="Z10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, Z$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5977694182222222</v>
       </c>
       <c r="AA10">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AA$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="6"/>
         <v>-2.5834370549999996</v>
       </c>
       <c r="AB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AB$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AC$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AD$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AE$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AF$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AG$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AH$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AI$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AJ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AK$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AL$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AM$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AN$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AO$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AP$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AQ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AR$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AS$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AT$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AU$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AV$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AW$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AX$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AY$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, AZ$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BA$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BB$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BC$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BD$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE10" t="e">
-        <f>AVERAGEIFS($D$2:$D$2128, $B$2:$B$2128, BE$1,$A$2:$A$2128, $G10)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -53471,199 +53471,199 @@
         <v>-3.5110131767777779</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:X16" si="0">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="I14:X16" si="10">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, I$1,$A$2:$A$2128, $G14)</f>
         <v>-3.5188434122222225</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.3819183773333332</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.0962821377777781</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.913951304222222</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8322080903333333</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7796902922222229</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7820139593333337</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7437580691111112</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7513783374444447</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7442783117777783</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7189279131111115</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7249689498888894</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7209607098888888</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7269967662222223</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7246263555555554</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7597321140000002</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:BE16" si="1">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
+        <f t="shared" ref="Y14:BE16" si="11">AVERAGEIFS($E$2:$E$2128, $B$2:$B$2128, Y$1,$A$2:$A$2128, $G14)</f>
         <v>-2.7398751841111113</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7047104438888896</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7394312222222221</v>
       </c>
       <c r="AB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -53691,199 +53691,199 @@
         <v>-3.5556977192222217</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.5081280733333333</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.1538203425555551</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.9703375631111113</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8386244774444447</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.787750720888889</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7661429643333331</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6765474478888889</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6578115886666667</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7005362774444444</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6541308295555552</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6191572481111112</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6683826842222222</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6083672842222221</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6764249007777776</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6023047764444445</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.5980167654444446</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6349282794444444</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6522592042222217</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6490347121111113</v>
       </c>
       <c r="AB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -53911,199 +53911,199 @@
         <v>-3.5286418200000003</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.4933789042222219</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3.233375417</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.915806108</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.8465393383333333</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7717621725555555</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.718900693777778</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7006499502222221</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.7028476000000001</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6948273578888884</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6764374705555558</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6497228808888891</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6720518137777773</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6622682808888891</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6391148035555556</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6847563583333334</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2.6666773556666663</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6647699011111112</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6865249475555553</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.6816636589999998</v>
       </c>
       <c r="AB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
